--- a/CREST syndrome_vs_MCTD.xlsx
+++ b/CREST syndrome_vs_MCTD.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="History of Present Illness (the" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medical and Surgical History, i" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Social History, Health Behavior" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vitals and Physical Exam" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Test Results (labs, imaging, pr" sheetId="5" state="visible" r:id="rId5"/>
@@ -484,88 +484,88 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Development of Raynaud's phenomenon</t>
+          <t>Development of telangiectasia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>While Raynaud's can occur in both conditions, its early and prominent presentation is more characteristic of CREST syndrome.</t>
+          <t>Telangiectasia is a prominent feature of CREST syndrome, while it is not a defining characteristic of MCTD.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Joint pain and swelling</t>
+          <t>Raynaud's phenomenon with significant digital ischemia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Arthralgia and arthritis are more common in MCTD, whereas CREST syndrome has less prominent joint involvement.</t>
+          <t>While Raynaud's can occur in both, significant digital ischemia is more indicative of MCTD.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Esophageal dysmotility symptoms</t>
+          <t>Limited skin involvement primarily affecting fingers and face</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Esophageal involvement leading to dysphagia is more specific to CREST syndrome compared to MCTD.</t>
+          <t>The limited skin involvement in CREST syndrome contrasts with the more diffuse skin changes often seen in MCTD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Systemic symptoms such as fever or fatigue</t>
+          <t>Systemic symptoms such as fever and fatigue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Systemic symptoms are more prevalent in MCTD, indicating a more generalized autoimmune process compared to CREST syndrome.</t>
+          <t>Systemic symptoms are more prevalent in MCTD, whereas CREST syndrome tends to have more localized symptoms.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension symptoms</t>
+          <t>History of esophageal dysmotility</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a significant complication of CREST syndrome and is less frequently associated with MCTD.</t>
+          <t>Esophageal dysmotility is more frequently associated with CREST syndrome, whereas MCTD may not present with this symptom.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Lupus-like symptoms (e.g., malar rash)</t>
+          <t>Joint involvement with arthritis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The presence of a malar rash is indicative of MCTD and is not a feature of CREST syndrome.</t>
+          <t>Arthritis is a common manifestation of MCTD, while joint involvement is less pronounced in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skin changes limited to fingers and face</t>
+          <t>Pulmonary hypertension</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Skin manifestations in CREST syndrome are often localized, whereas MCTD typically presents with more widespread skin involvement.</t>
+          <t>Pulmonary hypertension is a significant complication of CREST syndrome and is less commonly associated with MCTD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Renal involvement symptoms</t>
+          <t>Lupus-like symptoms such as photosensitivity</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Renal complications are more associated with MCTD, while CREST syndrome typically has minimal renal involvement.</t>
+          <t>Photosensitivity is more characteristic of MCTD, distinguishing it from the more localized symptoms of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -580,14 +580,147 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx A</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Supports Dx B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Rationale Dx B</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>History of esophageal dysmotility</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Esophageal involvement is more common in CREST syndrome, leading to dysphagia and reflux symptoms, which are less prominent in MCTD.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>History of arthritis or arthralgia</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Arthritis is a common feature of MCTD and is often more severe than in CREST syndrome, which may have less prominent joint involvement.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Presence of calcinosis cutis</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Calcinosis is a hallmark feature of CREST syndrome and is not typically seen in MCTD.</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Presence of myositis symptoms</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Myositis is a key feature of MCTD, which is not typically present in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>History of pulmonary hypertension</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pulmonary hypertension is more frequently associated with CREST syndrome compared to MCTD, where it is less common.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>History of significant fatigue</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Fatigue is more commonly reported in MCTD, while patients with CREST syndrome may not experience it to the same degree.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Limited skin involvement</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CREST syndrome is characterized by limited scleroderma, which presents with skin changes that are less extensive than those seen in MCTD.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Use of corticosteroids for systemic symptoms</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Corticosteroids are often used in MCTD to manage systemic symptoms, whereas they are less frequently required in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Use of calcium channel blockers for Raynaud's phenomenon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Calcium channel blockers are often used to manage Raynaud's in CREST syndrome, while MCTD may not present with this symptom as prominently.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Presence of anti-U1 RNP antibodies</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Anti-U1 RNP antibodies are more specific to MCTD and are not typically found in CREST syndrome.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -641,12 +774,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>History of significant fatigue and malaise</t>
+          <t>History of Raynaud's phenomenon with systemic symptoms</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>MCTD often presents with systemic symptoms like fatigue, which are less pronounced in CREST syndrome.</t>
+          <t>MCTD often presents with Raynaud's phenomenon alongside systemic symptoms, while CREST syndrome may not have significant systemic involvement.</t>
         </is>
       </c>
     </row>
@@ -668,29 +801,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A family history of MCTD or related autoimmune diseases supports a diagnosis of MCTD over CREST syndrome.</t>
+          <t>A family history of MCTD suggests a genetic predisposition, which is more relevant for MCTD than for CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Family history of scleroderma or related conditions</t>
+          <t>Family history of scleroderma</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A family history of scleroderma may suggest a predisposition to CREST syndrome specifically.</t>
+          <t>A family history of scleroderma may suggest a predisposition to CREST syndrome, whereas MCTD has a broader genetic background.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engagement in health behaviors indicating systemic illness (e.g., frequent medical visits)</t>
+          <t>Engagement in high-stress occupations</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Patients with MCTD may have more frequent healthcare interactions due to systemic involvement compared to those with CREST syndrome.</t>
+          <t>High-stress occupations may exacerbate symptoms in MCTD, while CREST syndrome is less influenced by occupational stress.</t>
         </is>
       </c>
     </row>
@@ -702,17 +835,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Esophageal involvement is more characteristic of CREST syndrome, while MCTD may not present with this specific symptom.</t>
+          <t>Esophageal dysmotility is more characteristic of CREST syndrome, while MCTD may not present with this specific symptom.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>History of Raynaud's phenomenon with systemic symptoms</t>
+          <t>History of significant fatigue and malaise</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>While both conditions can present with Raynaud's, the systemic symptoms associated with MCTD are more pronounced.</t>
+          <t>Fatigue and malaise are more pronounced in MCTD, whereas CREST syndrome may not present with such systemic symptoms.</t>
         </is>
       </c>
     </row>
@@ -724,17 +857,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Social withdrawal due to skin manifestations is more common in CREST syndrome, reflecting its localized impact.</t>
+          <t>Social withdrawal due to visible skin changes is more common in CREST syndrome, reflecting its cutaneous manifestations.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Social history indicating multiple autoimmune conditions</t>
+          <t>History of arthritis or joint pain</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A history of multiple autoimmune diseases in the patient or family is more indicative of MCTD.</t>
+          <t>Arthritis is a common feature of MCTD, while CREST syndrome typically does not present with significant joint involvement.</t>
         </is>
       </c>
     </row>
@@ -797,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Myositis is a common feature of MCTD and is not typically present in CREST syndrome.</t>
+          <t>Myositis is more characteristic of MCTD and is not a feature of CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -809,7 +942,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>While Raynaud's can occur in both conditions, it is more pronounced and often a presenting symptom in CREST syndrome.</t>
+          <t>While Raynaud's can occur in both conditions, it is more pronounced and characteristic in CREST syndrome.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -819,7 +952,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Joint pain or inflammation is more characteristic of MCTD than CREST syndrome.</t>
+          <t>Joint pain or inflammation is more prevalent in MCTD compared to CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -831,7 +964,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calcinosis is a specific feature of CREST syndrome and is not typically seen in MCTD.</t>
+          <t>The presence of calcinosis cutis is more specific to CREST syndrome and not typically seen in MCTD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -841,7 +974,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A lupus-like rash is more indicative of MCTD, whereas CREST syndrome has distinct skin manifestations.</t>
+          <t>A lupus-like rash is more indicative of MCTD, while skin changes in CREST are different.</t>
         </is>
       </c>
     </row>
@@ -853,39 +986,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is more frequently associated with CREST syndrome compared to MCTD.</t>
+          <t>Pulmonary hypertension is a common complication of CREST syndrome, whereas it is less frequently associated with MCTD.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Esophageal dysmotility</t>
+          <t>Pleuritis</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Esophageal dysmotility is more commonly reported in MCTD compared to CREST syndrome.</t>
+          <t>Pleuritis is more commonly associated with MCTD and is not a typical finding in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Limited skin involvement</t>
+          <t>Telangiectasia</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CREST syndrome typically presents with limited skin involvement, contrasting with the diffuse skin changes seen in MCTD.</t>
+          <t>Telangiectasia is a common finding in CREST syndrome and is not a typical feature of MCTD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sicca symptoms (dry eyes and mouth)</t>
+          <t>Fever</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sicca symptoms are more prevalent in MCTD, while CREST syndrome does not typically present with these symptoms.</t>
+          <t>Fever can be present in MCTD due to systemic inflammation, whereas it is less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -948,7 +1081,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Anti-U1 RNP antibodies are more associated with MCTD and are not typically found in CREST syndrome.</t>
+          <t>Anti-U1 RNP antibodies are more commonly associated with MCTD and are not typically found in CREST syndrome.</t>
         </is>
       </c>
     </row>
@@ -960,7 +1093,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension is a common complication of CREST syndrome and less frequently seen in MCTD.</t>
+          <t>Pulmonary hypertension is a common complication of CREST syndrome and is less frequently associated with MCTD.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -970,19 +1103,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Muscle involvement is more common in MCTD, distinguishing it from CREST syndrome.</t>
+          <t>Muscle involvement is more characteristic of MCTD, whereas CREST syndrome does not typically present with myositis.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Calcinosis cutis on imaging or physical examination</t>
+          <t>Calcinosis cutis on imaging or physical exam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Calcinosis is a hallmark of CREST syndrome and is not a feature of MCTD.</t>
+          <t>Calcinosis is a hallmark feature of CREST syndrome and is not typically seen in MCTD.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1009,24 +1142,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Joint involvement on imaging (e.g., arthritis changes)</t>
+          <t>Joint involvement with inflammatory markers (e.g., elevated ESR)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Arthritis is a prominent feature of MCTD, whereas CREST syndrome typically has less joint involvement.</t>
+          <t>MCTD often presents with significant arthritis and elevated inflammatory markers, which are less common in CREST syndrome.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skin thickening or sclerodactyly on physical examination</t>
+          <t>Skin thickening or telangiectasia on physical exam</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Skin changes are characteristic of CREST syndrome and are not typically seen in MCTD.</t>
+          <t>These findings are characteristic of CREST syndrome and are not prominent in MCTD.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1036,7 +1169,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Interstitial lung disease is more common in MCTD compared to CREST syndrome.</t>
+          <t>Interstitial lung disease is more prevalent in MCTD compared to CREST syndrome, which typically has pulmonary hypertension.</t>
         </is>
       </c>
     </row>
